--- a/Interrogaciones/src/excel_horarios/parametros.xlsx
+++ b/Interrogaciones/src/excel_horarios/parametros.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cristobalcuneo/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C616C9-4739-C142-B3FF-652113132878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF4FB37-FCB5-C240-8BC0-66C323137DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15000" yWindow="960" windowWidth="28040" windowHeight="16080" activeTab="1" xr2:uid="{AA32946A-2B0C-6648-821D-E66B322DA036}"/>
+    <workbookView xWindow="15000" yWindow="940" windowWidth="28040" windowHeight="16080" xr2:uid="{AA32946A-2B0C-6648-821D-E66B322DA036}"/>
   </bookViews>
   <sheets>
     <sheet name="Fechas" sheetId="1" r:id="rId1"/>
     <sheet name="Cursos Coordinados" sheetId="2" r:id="rId2"/>
+    <sheet name="Interrogaciones Fijas" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Fecha</t>
   </si>
@@ -154,6 +155,12 @@
   </si>
   <si>
     <t>Cursos Coordinados</t>
+  </si>
+  <si>
+    <t>Curso</t>
+  </si>
+  <si>
+    <t>N° Interrogación</t>
   </si>
 </sst>
 </file>
@@ -225,6 +232,18 @@
   <autoFilter ref="A1:A1048576" xr:uid="{1D330993-ACC1-3F46-96EC-B667580BAAE3}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{BE19BBBB-7C75-9C46-B88F-FEB8C88F466D}" name="Cursos Coordinados"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D1A0050E-AD65-0546-9CB4-4BD1D4CA638E}" name="Table3" displayName="Table3" ref="A1:C1048576" totalsRowShown="0">
+  <autoFilter ref="A1:C1048576" xr:uid="{D1A0050E-AD65-0546-9CB4-4BD1D4CA638E}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{48AC6893-BBDB-A743-BDAE-E8CA04117221}" name="Curso"/>
+    <tableColumn id="2" xr3:uid="{73F37C58-0BCF-474E-B552-2629246B514B}" name="N° Interrogación"/>
+    <tableColumn id="3" xr3:uid="{664E19DA-D900-BC44-9941-E6F64948FB40}" name="Fecha"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -529,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DF76B5-6A7C-E046-A010-679E95D8531F}">
   <dimension ref="A1:B123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1488,7 +1507,7 @@
         <v>45103</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -1496,7 +1515,7 @@
         <v>45104</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -1504,7 +1523,7 @@
         <v>45105</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -1512,7 +1531,7 @@
         <v>45106</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -1520,7 +1539,7 @@
         <v>45107</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1535,7 +1554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D88ADE8-6911-6F4C-B2B8-F318FA70C9A0}">
   <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1735,4 +1754,43 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1410159-DD26-4344-B130-1AD5EBDC5A01}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Interrogaciones/src/excel_horarios/parametros.xlsx
+++ b/Interrogaciones/src/excel_horarios/parametros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cristobalcuneo/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF4FB37-FCB5-C240-8BC0-66C323137DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CD0890-88E2-5241-935A-35DDD1AF0315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15000" yWindow="940" windowWidth="28040" windowHeight="16080" xr2:uid="{AA32946A-2B0C-6648-821D-E66B322DA036}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{AA32946A-2B0C-6648-821D-E66B322DA036}"/>
   </bookViews>
   <sheets>
     <sheet name="Fechas" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Fecha</t>
   </si>
@@ -161,13 +161,22 @@
   </si>
   <si>
     <t>N° Interrogación</t>
+  </si>
+  <si>
+    <t>Fecha Retiro</t>
+  </si>
+  <si>
+    <t>Fecha Mínimo I2</t>
+  </si>
+  <si>
+    <t>Semana Licenciatura</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -175,13 +184,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -196,9 +219,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,35 +570,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DF76B5-6A7C-E046-A010-679E95D8531F}">
-  <dimension ref="A1:B123"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44986</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D2" s="1">
+        <v>45054</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45061</v>
+      </c>
+      <c r="H2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44987</v>
       </c>
@@ -582,7 +627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44988</v>
       </c>
@@ -590,7 +635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44989</v>
       </c>
@@ -598,7 +643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44990</v>
       </c>
@@ -606,7 +651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44991</v>
       </c>
@@ -614,7 +659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44992</v>
       </c>
@@ -622,7 +667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44993</v>
       </c>
@@ -630,7 +675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44994</v>
       </c>
@@ -638,7 +683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44995</v>
       </c>
@@ -646,7 +691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44996</v>
       </c>
@@ -654,7 +699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44997</v>
       </c>
@@ -662,7 +707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44998</v>
       </c>
@@ -670,7 +715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44999</v>
       </c>
@@ -678,7 +723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>45000</v>
       </c>
